--- a/Auswertung/Auswertung.xlsx
+++ b/Auswertung/Auswertung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Dropbox\BachelorArbeit (1)\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\GIT\Thesis\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="248">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -738,6 +738,42 @@
   </si>
   <si>
     <t xml:space="preserve">5./3. </t>
+  </si>
+  <si>
+    <t>kurz und prägnant</t>
+  </si>
+  <si>
+    <t>Aufzählung der Positionen</t>
+  </si>
+  <si>
+    <t>Sprechtempo</t>
+  </si>
+  <si>
+    <t>die erforderlichen Personeninformationen</t>
+  </si>
+  <si>
+    <t>Aufzählung der einzelnen Positionen</t>
+  </si>
+  <si>
+    <t>Kim Clemens / g. Fnnr</t>
+  </si>
+  <si>
+    <t>P v CG / p Mbnr</t>
+  </si>
+  <si>
+    <t>nein…ja /ja</t>
+  </si>
+  <si>
+    <t>5. / 3.</t>
+  </si>
+  <si>
+    <t>nein…ja/ ja</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>nein…ja/nein…ja</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA132"/>
+  <dimension ref="A1:BA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH131" sqref="AH131"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S155" sqref="S155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13086,6 +13122,1553 @@
         <v>129</v>
       </c>
     </row>
+    <row r="133" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="17">
+        <v>41946.666597222225</v>
+      </c>
+      <c r="B133" s="47">
+        <v>1</v>
+      </c>
+      <c r="C133" s="28">
+        <v>2</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
+      <c r="H133" s="6">
+        <v>2</v>
+      </c>
+      <c r="I133" s="6">
+        <v>5</v>
+      </c>
+      <c r="J133" s="6">
+        <v>3</v>
+      </c>
+      <c r="K133" s="6">
+        <v>4</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" s="6">
+        <v>5</v>
+      </c>
+      <c r="N133" s="6">
+        <v>5</v>
+      </c>
+      <c r="O133" s="6">
+        <v>2</v>
+      </c>
+      <c r="P133" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="6">
+        <v>33</v>
+      </c>
+      <c r="V133" s="6">
+        <v>2</v>
+      </c>
+      <c r="W133" s="6">
+        <v>5</v>
+      </c>
+      <c r="X133" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y133" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z133" s="20">
+        <v>25.1</v>
+      </c>
+      <c r="AA133" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC133" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="17">
+        <v>41946.666597222225</v>
+      </c>
+      <c r="B134" s="47">
+        <v>2</v>
+      </c>
+      <c r="C134" s="28">
+        <v>2</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F134" s="6">
+        <v>2</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1</v>
+      </c>
+      <c r="I134" s="6">
+        <v>6</v>
+      </c>
+      <c r="J134" s="6">
+        <v>2</v>
+      </c>
+      <c r="K134" s="6">
+        <v>2</v>
+      </c>
+      <c r="L134" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M134" s="6">
+        <v>2</v>
+      </c>
+      <c r="N134" s="6">
+        <v>2</v>
+      </c>
+      <c r="O134" s="6">
+        <v>1</v>
+      </c>
+      <c r="P134" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="6">
+        <v>33</v>
+      </c>
+      <c r="V134" s="6">
+        <v>2</v>
+      </c>
+      <c r="W134" s="6">
+        <v>5</v>
+      </c>
+      <c r="X134" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y134" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z134" s="20">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="AA134" s="20">
+        <v>1.08</v>
+      </c>
+      <c r="AC134" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE134" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="17">
+        <v>41946.666597222225</v>
+      </c>
+      <c r="B135" s="47">
+        <v>3</v>
+      </c>
+      <c r="C135" s="28">
+        <v>2</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F135" s="6">
+        <v>4</v>
+      </c>
+      <c r="G135" s="6">
+        <v>1</v>
+      </c>
+      <c r="H135" s="6">
+        <v>2</v>
+      </c>
+      <c r="I135" s="6">
+        <v>5</v>
+      </c>
+      <c r="J135" s="6">
+        <v>5</v>
+      </c>
+      <c r="K135" s="6">
+        <v>2</v>
+      </c>
+      <c r="L135" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" s="6">
+        <v>5</v>
+      </c>
+      <c r="N135" s="6">
+        <v>2</v>
+      </c>
+      <c r="O135" s="6">
+        <v>1</v>
+      </c>
+      <c r="P135" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="6">
+        <v>33</v>
+      </c>
+      <c r="V135" s="6">
+        <v>2</v>
+      </c>
+      <c r="W135" s="6">
+        <v>5</v>
+      </c>
+      <c r="X135" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y135" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z135" s="20">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="AA135" s="20">
+        <v>59</v>
+      </c>
+      <c r="AC135" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="17">
+        <v>41946.666597222225</v>
+      </c>
+      <c r="B136" s="47">
+        <v>1</v>
+      </c>
+      <c r="C136" s="28">
+        <v>2</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F136" s="6">
+        <v>2</v>
+      </c>
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
+      <c r="H136" s="6">
+        <v>2</v>
+      </c>
+      <c r="I136" s="6">
+        <v>6</v>
+      </c>
+      <c r="J136" s="6">
+        <v>1</v>
+      </c>
+      <c r="K136" s="6">
+        <v>1</v>
+      </c>
+      <c r="L136" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M136" s="19"/>
+      <c r="N136" s="6">
+        <v>1</v>
+      </c>
+      <c r="O136" s="6">
+        <v>1</v>
+      </c>
+      <c r="P136" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19">
+        <v>2</v>
+      </c>
+      <c r="T136" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U136" s="6">
+        <v>33</v>
+      </c>
+      <c r="V136" s="6">
+        <v>2</v>
+      </c>
+      <c r="W136" s="6">
+        <v>5</v>
+      </c>
+      <c r="X136" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y136" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z136" s="20">
+        <v>22.61</v>
+      </c>
+      <c r="AC136" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH136" s="20">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W137" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X137" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z137" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA137" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB137" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC137" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF137" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH137" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17">
+        <v>41903.690347222226</v>
+      </c>
+      <c r="B138" s="47">
+        <v>1</v>
+      </c>
+      <c r="C138" s="28">
+        <v>2</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F138" s="6">
+        <v>2</v>
+      </c>
+      <c r="G138" s="6">
+        <v>2</v>
+      </c>
+      <c r="H138" s="6">
+        <v>1</v>
+      </c>
+      <c r="I138" s="6">
+        <v>5</v>
+      </c>
+      <c r="J138" s="6">
+        <v>3</v>
+      </c>
+      <c r="K138" s="6">
+        <v>3</v>
+      </c>
+      <c r="L138" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M138" s="6">
+        <v>3</v>
+      </c>
+      <c r="N138" s="6">
+        <v>1</v>
+      </c>
+      <c r="O138" s="6">
+        <v>1</v>
+      </c>
+      <c r="P138" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q138" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R138" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="S138" s="18"/>
+      <c r="T138" s="18"/>
+      <c r="U138" s="6">
+        <v>33</v>
+      </c>
+      <c r="V138" s="6">
+        <v>2</v>
+      </c>
+      <c r="W138" s="6">
+        <v>6</v>
+      </c>
+      <c r="X138" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y138" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z138" s="20">
+        <v>26.41</v>
+      </c>
+      <c r="AA138" s="20">
+        <v>1.32</v>
+      </c>
+      <c r="AC138" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17">
+        <v>41903.693530092591</v>
+      </c>
+      <c r="B139" s="47">
+        <v>2</v>
+      </c>
+      <c r="C139" s="28">
+        <v>2</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F139" s="6">
+        <v>3</v>
+      </c>
+      <c r="G139" s="6">
+        <v>2</v>
+      </c>
+      <c r="H139" s="6">
+        <v>3</v>
+      </c>
+      <c r="I139" s="6">
+        <v>4</v>
+      </c>
+      <c r="J139" s="6">
+        <v>3</v>
+      </c>
+      <c r="K139" s="6">
+        <v>4</v>
+      </c>
+      <c r="L139" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M139" s="6">
+        <v>3</v>
+      </c>
+      <c r="N139" s="6">
+        <v>3</v>
+      </c>
+      <c r="O139" s="6">
+        <v>1</v>
+      </c>
+      <c r="P139" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q139" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R139" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="6">
+        <v>33</v>
+      </c>
+      <c r="V139" s="6">
+        <v>2</v>
+      </c>
+      <c r="W139" s="6">
+        <v>6</v>
+      </c>
+      <c r="X139" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y139" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z139" s="20">
+        <v>41.63</v>
+      </c>
+      <c r="AA139" s="20">
+        <v>1.31</v>
+      </c>
+      <c r="AC139" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE139" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17">
+        <v>41903.696412037039</v>
+      </c>
+      <c r="B140" s="47">
+        <v>3</v>
+      </c>
+      <c r="C140" s="28">
+        <v>1</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" s="6">
+        <v>4</v>
+      </c>
+      <c r="G140" s="6">
+        <v>3</v>
+      </c>
+      <c r="H140" s="6">
+        <v>3</v>
+      </c>
+      <c r="I140" s="6">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6">
+        <v>4</v>
+      </c>
+      <c r="K140" s="6">
+        <v>3</v>
+      </c>
+      <c r="L140" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="6">
+        <v>2</v>
+      </c>
+      <c r="N140" s="6">
+        <v>5</v>
+      </c>
+      <c r="O140" s="6">
+        <v>3</v>
+      </c>
+      <c r="P140" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q140" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="R140" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="6">
+        <v>33</v>
+      </c>
+      <c r="V140" s="6">
+        <v>2</v>
+      </c>
+      <c r="W140" s="6">
+        <v>6</v>
+      </c>
+      <c r="X140" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y140" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z140" s="20">
+        <v>27.7</v>
+      </c>
+      <c r="AA140" s="20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AC140" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17">
+        <v>41903.698969907404</v>
+      </c>
+      <c r="B141" s="46">
+        <v>2</v>
+      </c>
+      <c r="C141" s="28">
+        <v>2</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6">
+        <v>2</v>
+      </c>
+      <c r="H141" s="6">
+        <v>1</v>
+      </c>
+      <c r="I141" s="6">
+        <v>5</v>
+      </c>
+      <c r="J141" s="6">
+        <v>1</v>
+      </c>
+      <c r="K141" s="6">
+        <v>3</v>
+      </c>
+      <c r="L141" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="19"/>
+      <c r="N141" s="6">
+        <v>3</v>
+      </c>
+      <c r="O141" s="6">
+        <v>1</v>
+      </c>
+      <c r="P141" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q141" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="R141" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="S141" s="19">
+        <v>5</v>
+      </c>
+      <c r="T141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U141" s="6">
+        <v>33</v>
+      </c>
+      <c r="V141" s="6">
+        <v>2</v>
+      </c>
+      <c r="W141" s="6">
+        <v>6</v>
+      </c>
+      <c r="X141" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y141" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z141" s="20">
+        <v>34.79</v>
+      </c>
+      <c r="AC141" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH141" s="20">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W142" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y142" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z142" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA142" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB142" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC142" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF142" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG142" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH142" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
+        <v>41948.7575462963</v>
+      </c>
+      <c r="B143" s="46">
+        <v>3</v>
+      </c>
+      <c r="C143" s="28">
+        <v>1</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F143" s="6">
+        <v>2</v>
+      </c>
+      <c r="G143" s="6">
+        <v>2</v>
+      </c>
+      <c r="H143" s="6">
+        <v>3</v>
+      </c>
+      <c r="I143" s="6">
+        <v>4</v>
+      </c>
+      <c r="J143" s="6">
+        <v>2</v>
+      </c>
+      <c r="K143" s="6">
+        <v>3</v>
+      </c>
+      <c r="L143" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143" s="6">
+        <v>4</v>
+      </c>
+      <c r="N143" s="6">
+        <v>2</v>
+      </c>
+      <c r="O143" s="6">
+        <v>1</v>
+      </c>
+      <c r="P143" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q143" s="18"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="18"/>
+      <c r="T143" s="18"/>
+      <c r="U143" s="6">
+        <v>33</v>
+      </c>
+      <c r="V143" s="6">
+        <v>4</v>
+      </c>
+      <c r="W143" s="6">
+        <v>5</v>
+      </c>
+      <c r="X143" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y143" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z143" s="20">
+        <v>24.48</v>
+      </c>
+      <c r="AA143" s="20">
+        <v>1.21</v>
+      </c>
+      <c r="AC143" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>41948.7575462963</v>
+      </c>
+      <c r="B144" s="46">
+        <v>1</v>
+      </c>
+      <c r="C144" s="28">
+        <v>2</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F144" s="6">
+        <v>3</v>
+      </c>
+      <c r="G144" s="6">
+        <v>3</v>
+      </c>
+      <c r="H144" s="6">
+        <v>2</v>
+      </c>
+      <c r="I144" s="6">
+        <v>5</v>
+      </c>
+      <c r="J144" s="6">
+        <v>2</v>
+      </c>
+      <c r="K144" s="6">
+        <v>2</v>
+      </c>
+      <c r="L144" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M144" s="6">
+        <v>3</v>
+      </c>
+      <c r="N144" s="6">
+        <v>2</v>
+      </c>
+      <c r="O144" s="6">
+        <v>2</v>
+      </c>
+      <c r="P144" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="19"/>
+      <c r="T144" s="19"/>
+      <c r="U144" s="6">
+        <v>33</v>
+      </c>
+      <c r="V144" s="6">
+        <v>4</v>
+      </c>
+      <c r="W144" s="6">
+        <v>5</v>
+      </c>
+      <c r="X144" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y144" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z144" s="20">
+        <v>31.65</v>
+      </c>
+      <c r="AA144" s="20">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AC144" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE144" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
+        <v>41948.7575462963</v>
+      </c>
+      <c r="B145" s="46">
+        <v>2</v>
+      </c>
+      <c r="C145" s="28">
+        <v>2</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" s="6">
+        <v>4</v>
+      </c>
+      <c r="G145" s="6">
+        <v>3</v>
+      </c>
+      <c r="H145" s="6">
+        <v>5</v>
+      </c>
+      <c r="I145" s="6">
+        <v>5</v>
+      </c>
+      <c r="J145" s="6">
+        <v>3</v>
+      </c>
+      <c r="K145" s="6">
+        <v>2</v>
+      </c>
+      <c r="L145" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" s="6">
+        <v>5</v>
+      </c>
+      <c r="N145" s="6">
+        <v>3</v>
+      </c>
+      <c r="O145" s="6">
+        <v>1</v>
+      </c>
+      <c r="P145" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="6">
+        <v>33</v>
+      </c>
+      <c r="V145" s="6">
+        <v>4</v>
+      </c>
+      <c r="W145" s="6">
+        <v>5</v>
+      </c>
+      <c r="X145" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y145" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z145" s="20">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="AA145" s="20">
+        <v>1.04</v>
+      </c>
+      <c r="AC145" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>41948.7575462963</v>
+      </c>
+      <c r="B146" s="46">
+        <v>3</v>
+      </c>
+      <c r="C146" s="28">
+        <v>2</v>
+      </c>
+      <c r="D146" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F146" s="6">
+        <v>2</v>
+      </c>
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
+      <c r="H146" s="6">
+        <v>1</v>
+      </c>
+      <c r="I146" s="6">
+        <v>6</v>
+      </c>
+      <c r="J146" s="6">
+        <v>1</v>
+      </c>
+      <c r="K146" s="6">
+        <v>2</v>
+      </c>
+      <c r="L146" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M146" s="6">
+        <v>1</v>
+      </c>
+      <c r="N146" s="6">
+        <v>1</v>
+      </c>
+      <c r="O146" s="6">
+        <v>1</v>
+      </c>
+      <c r="P146" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19">
+        <v>1</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U146" s="6">
+        <v>33</v>
+      </c>
+      <c r="V146" s="6">
+        <v>4</v>
+      </c>
+      <c r="W146" s="6">
+        <v>5</v>
+      </c>
+      <c r="X146" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y146" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z146" s="20">
+        <v>29.44</v>
+      </c>
+      <c r="AC146" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W147" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X147" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z147" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA147" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB147" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC147" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE147" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF147" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG147" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH147" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="40">
+        <v>41949.842280092591</v>
+      </c>
+      <c r="B148" s="46">
+        <v>2</v>
+      </c>
+      <c r="C148" s="28">
+        <v>2</v>
+      </c>
+      <c r="D148" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F148" s="6">
+        <v>4</v>
+      </c>
+      <c r="G148" s="6">
+        <v>2</v>
+      </c>
+      <c r="H148" s="6">
+        <v>2</v>
+      </c>
+      <c r="I148" s="6">
+        <v>5</v>
+      </c>
+      <c r="J148" s="6">
+        <v>4</v>
+      </c>
+      <c r="K148" s="6">
+        <v>2</v>
+      </c>
+      <c r="L148" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M148" s="6">
+        <v>4</v>
+      </c>
+      <c r="N148" s="6">
+        <v>3</v>
+      </c>
+      <c r="O148" s="6">
+        <v>2</v>
+      </c>
+      <c r="P148" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="6">
+        <v>24</v>
+      </c>
+      <c r="V148" s="6">
+        <v>4</v>
+      </c>
+      <c r="W148" s="6">
+        <v>3</v>
+      </c>
+      <c r="X148" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y148" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z148" s="20">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="AA148" s="20">
+        <v>62</v>
+      </c>
+      <c r="AC148" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE148" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="40">
+        <v>41949.842280092591</v>
+      </c>
+      <c r="B149" s="46">
+        <v>3</v>
+      </c>
+      <c r="C149" s="28">
+        <v>2</v>
+      </c>
+      <c r="D149" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F149" s="6">
+        <v>3</v>
+      </c>
+      <c r="G149" s="6">
+        <v>2</v>
+      </c>
+      <c r="H149" s="6">
+        <v>2</v>
+      </c>
+      <c r="I149" s="6">
+        <v>5</v>
+      </c>
+      <c r="J149" s="6">
+        <v>3</v>
+      </c>
+      <c r="K149" s="6">
+        <v>2</v>
+      </c>
+      <c r="L149" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M149" s="6">
+        <v>4</v>
+      </c>
+      <c r="N149" s="6">
+        <v>3</v>
+      </c>
+      <c r="O149" s="6">
+        <v>2</v>
+      </c>
+      <c r="P149" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="6">
+        <v>24</v>
+      </c>
+      <c r="V149" s="6">
+        <v>4</v>
+      </c>
+      <c r="W149" s="6">
+        <v>3</v>
+      </c>
+      <c r="X149" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y149" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z149" s="20">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="AA149" s="20">
+        <v>63</v>
+      </c>
+      <c r="AC149" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="40">
+        <v>41949.842280092591</v>
+      </c>
+      <c r="B150" s="46">
+        <v>1</v>
+      </c>
+      <c r="C150" s="28">
+        <v>2</v>
+      </c>
+      <c r="D150" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F150" s="6">
+        <v>4</v>
+      </c>
+      <c r="G150" s="6">
+        <v>2</v>
+      </c>
+      <c r="H150" s="6">
+        <v>2</v>
+      </c>
+      <c r="I150" s="6">
+        <v>5</v>
+      </c>
+      <c r="J150" s="6">
+        <v>3</v>
+      </c>
+      <c r="K150" s="6">
+        <v>2</v>
+      </c>
+      <c r="L150" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M150" s="6">
+        <v>3</v>
+      </c>
+      <c r="N150" s="6">
+        <v>3</v>
+      </c>
+      <c r="O150" s="6">
+        <v>2</v>
+      </c>
+      <c r="P150" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="6">
+        <v>24</v>
+      </c>
+      <c r="V150" s="6">
+        <v>4</v>
+      </c>
+      <c r="W150" s="6">
+        <v>3</v>
+      </c>
+      <c r="X150" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y150" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z150" s="20">
+        <v>29.45</v>
+      </c>
+      <c r="AA150" s="20">
+        <v>58</v>
+      </c>
+      <c r="AC150" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="40">
+        <v>41949.842280092591</v>
+      </c>
+      <c r="B151" s="46">
+        <v>1</v>
+      </c>
+      <c r="C151" s="28">
+        <v>2</v>
+      </c>
+      <c r="D151" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F151" s="6">
+        <v>1</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1</v>
+      </c>
+      <c r="H151" s="6">
+        <v>1</v>
+      </c>
+      <c r="I151" s="6">
+        <v>6</v>
+      </c>
+      <c r="J151" s="6">
+        <v>1</v>
+      </c>
+      <c r="K151" s="6">
+        <v>1</v>
+      </c>
+      <c r="L151" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M151" s="19"/>
+      <c r="N151" s="6">
+        <v>3</v>
+      </c>
+      <c r="O151" s="6">
+        <v>2</v>
+      </c>
+      <c r="P151" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19">
+        <v>2</v>
+      </c>
+      <c r="T151" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U151" s="6">
+        <v>24</v>
+      </c>
+      <c r="V151" s="6">
+        <v>4</v>
+      </c>
+      <c r="W151" s="6">
+        <v>3</v>
+      </c>
+      <c r="X151" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y151" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z151" s="20">
+        <v>24.82</v>
+      </c>
+      <c r="AC151" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH151" s="20">
+        <v>4.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Auswertung/Auswertung.xlsx
+++ b/Auswertung/Auswertung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="244">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -498,9 +498,6 @@
     <t>9A</t>
   </si>
   <si>
-    <t>13C</t>
-  </si>
-  <si>
     <t>12A</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
     <t>kurz, sachlich</t>
   </si>
   <si>
-    <t>kurz sachlich</t>
-  </si>
-  <si>
     <t>Nachfrage nach dem Nachnamen</t>
   </si>
   <si>
@@ -583,12 +577,6 @@
   </si>
   <si>
     <t>ja/Ja</t>
-  </si>
-  <si>
-    <t>Festnetz, geschäftl.</t>
-  </si>
-  <si>
-    <t>slots direkt</t>
   </si>
   <si>
     <t>Zu viele Fragen bei vielen Möglichkeiten.
@@ -780,7 +768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +864,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -948,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1096,6 +1112,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S155" sqref="S155"/>
+    <sheetView tabSelected="1" topLeftCell="Q74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U91" sqref="U91:Y91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6844,7 +6882,7 @@
         <v>82</v>
       </c>
       <c r="AC63" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF63" s="20" t="s">
         <v>125</v>
@@ -6921,7 +6959,7 @@
         <v>78</v>
       </c>
       <c r="AC64" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6995,7 +7033,7 @@
         <v>63</v>
       </c>
       <c r="AC65" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AE65" s="20">
         <v>1</v>
@@ -7253,7 +7291,7 @@
         <v>74</v>
       </c>
       <c r="AC68" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U69" s="6">
         <v>23</v>
@@ -7328,7 +7366,7 @@
         <v>80</v>
       </c>
       <c r="AC69" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AE69" s="20">
         <v>0</v>
@@ -7384,7 +7422,7 @@
         <v>5</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U70" s="6">
         <v>23</v>
@@ -7411,7 +7449,7 @@
         <v>142</v>
       </c>
       <c r="AF70" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S71" s="6">
         <v>3</v>
@@ -7609,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>36</v>
@@ -7670,7 +7708,7 @@
         <v>69</v>
       </c>
       <c r="AC73" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7684,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>36</v>
@@ -7745,7 +7783,7 @@
         <v>68</v>
       </c>
       <c r="AC74" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AE74" s="20">
         <v>0</v>
@@ -7762,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>36</v>
@@ -7801,7 +7839,7 @@
         <v>5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U75" s="6">
         <v>32</v>
@@ -7825,7 +7863,7 @@
         <v>66</v>
       </c>
       <c r="AC75" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF75" s="20" t="s">
         <v>125</v>
@@ -7842,7 +7880,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>36</v>
@@ -8025,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>101</v>
@@ -8086,13 +8124,13 @@
         <v>63</v>
       </c>
       <c r="AB78" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC78" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF78" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="AC78" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF78" s="20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8106,7 +8144,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>101</v>
@@ -8145,7 +8183,7 @@
         <v>3</v>
       </c>
       <c r="R79" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U79" s="6">
         <v>30</v>
@@ -8169,7 +8207,7 @@
         <v>66</v>
       </c>
       <c r="AC79" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8183,7 +8221,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>101</v>
@@ -8261,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>101</v>
@@ -8323,7 +8361,7 @@
         <v>19.5</v>
       </c>
       <c r="AC81" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE81" s="20">
         <v>0</v>
@@ -8436,310 +8474,310 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
+    <row r="83" spans="1:51" s="55" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51">
         <v>41906.84778935185</v>
       </c>
-      <c r="B83" s="46">
-        <v>1</v>
-      </c>
-      <c r="C83" s="28">
+      <c r="B83" s="52">
+        <v>1</v>
+      </c>
+      <c r="C83" s="53">
         <v>0</v>
       </c>
-      <c r="D83" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E83" s="20" t="s">
+      <c r="D83" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F83" s="6">
-        <v>3</v>
-      </c>
-      <c r="G83" s="6">
-        <v>3</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="6">
-        <v>2</v>
-      </c>
-      <c r="J83" s="6">
-        <v>2</v>
-      </c>
-      <c r="K83" s="6">
-        <v>2</v>
-      </c>
-      <c r="L83" s="18" t="s">
+      <c r="F83" s="56">
+        <v>3</v>
+      </c>
+      <c r="G83" s="56">
+        <v>3</v>
+      </c>
+      <c r="H83" s="57"/>
+      <c r="I83" s="56">
+        <v>2</v>
+      </c>
+      <c r="J83" s="56">
+        <v>2</v>
+      </c>
+      <c r="K83" s="56">
+        <v>2</v>
+      </c>
+      <c r="L83" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M83" s="6">
-        <v>2</v>
-      </c>
-      <c r="N83" s="6">
-        <v>2</v>
-      </c>
-      <c r="O83" s="6">
-        <v>4</v>
-      </c>
-      <c r="P83" s="6">
-        <v>3</v>
-      </c>
-      <c r="U83" s="6">
+      <c r="M83" s="56">
+        <v>2</v>
+      </c>
+      <c r="N83" s="56">
+        <v>2</v>
+      </c>
+      <c r="O83" s="56">
+        <v>4</v>
+      </c>
+      <c r="P83" s="56">
+        <v>3</v>
+      </c>
+      <c r="U83" s="56">
         <v>56</v>
       </c>
-      <c r="V83" s="6">
-        <v>1</v>
-      </c>
-      <c r="W83" s="6">
+      <c r="V83" s="56">
+        <v>1</v>
+      </c>
+      <c r="W83" s="56">
         <v>6</v>
       </c>
-      <c r="X83" s="6">
+      <c r="X83" s="56">
         <v>6</v>
       </c>
-      <c r="Y83" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="20">
+      <c r="Y83" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="55">
         <v>17.850000000000001</v>
       </c>
-      <c r="AA83" s="20">
+      <c r="AA83" s="55">
         <v>131</v>
       </c>
-      <c r="AB83" s="20" t="s">
+      <c r="AB83" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC83" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" s="55" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51">
+        <v>41906.84778935185</v>
+      </c>
+      <c r="B84" s="52">
+        <v>2</v>
+      </c>
+      <c r="C84" s="53">
+        <v>2</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="56">
+        <v>3</v>
+      </c>
+      <c r="G84" s="56">
+        <v>1</v>
+      </c>
+      <c r="H84" s="56">
+        <v>3</v>
+      </c>
+      <c r="I84" s="56">
+        <v>5</v>
+      </c>
+      <c r="J84" s="56">
+        <v>2</v>
+      </c>
+      <c r="K84" s="56">
+        <v>2</v>
+      </c>
+      <c r="L84" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="56">
+        <v>1</v>
+      </c>
+      <c r="N84" s="56">
+        <v>2</v>
+      </c>
+      <c r="O84" s="56">
+        <v>3</v>
+      </c>
+      <c r="P84" s="56">
+        <v>2</v>
+      </c>
+      <c r="U84" s="56">
+        <v>56</v>
+      </c>
+      <c r="V84" s="56">
+        <v>1</v>
+      </c>
+      <c r="W84" s="56">
+        <v>6</v>
+      </c>
+      <c r="X84" s="56">
+        <v>6</v>
+      </c>
+      <c r="Y84" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="55">
+        <v>20.85</v>
+      </c>
+      <c r="AA84" s="55">
+        <v>135</v>
+      </c>
+      <c r="AB84" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC84" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE84" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" s="55" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="51">
+        <v>41906.84778935185</v>
+      </c>
+      <c r="B85" s="52">
+        <v>3</v>
+      </c>
+      <c r="C85" s="53">
+        <v>1</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="56">
+        <v>1</v>
+      </c>
+      <c r="G85" s="56">
+        <v>2</v>
+      </c>
+      <c r="H85" s="56">
+        <v>2</v>
+      </c>
+      <c r="I85" s="56">
+        <v>5</v>
+      </c>
+      <c r="J85" s="56">
+        <v>2</v>
+      </c>
+      <c r="K85" s="56">
+        <v>1</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="56">
+        <v>1</v>
+      </c>
+      <c r="N85" s="56">
+        <v>2</v>
+      </c>
+      <c r="O85" s="56">
+        <v>3</v>
+      </c>
+      <c r="P85" s="56">
+        <v>2</v>
+      </c>
+      <c r="U85" s="56">
+        <v>56</v>
+      </c>
+      <c r="V85" s="56">
+        <v>1</v>
+      </c>
+      <c r="W85" s="56">
+        <v>6</v>
+      </c>
+      <c r="X85" s="56">
+        <v>6</v>
+      </c>
+      <c r="Y85" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="55">
+        <v>21.56</v>
+      </c>
+      <c r="AA85" s="55">
+        <v>93</v>
+      </c>
+      <c r="AB85" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC85" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="AC83" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
+    </row>
+    <row r="86" spans="1:51" s="55" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51">
         <v>41906.84778935185</v>
       </c>
-      <c r="B84" s="46">
-        <v>2</v>
-      </c>
-      <c r="C84" s="28">
-        <v>2</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="20" t="s">
+      <c r="B86" s="52">
+        <v>1</v>
+      </c>
+      <c r="C86" s="53">
+        <v>1</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="6">
-        <v>3</v>
-      </c>
-      <c r="G84" s="6">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6">
-        <v>3</v>
-      </c>
-      <c r="I84" s="6">
-        <v>5</v>
-      </c>
-      <c r="J84" s="6">
-        <v>2</v>
-      </c>
-      <c r="K84" s="6">
-        <v>2</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M84" s="6">
-        <v>1</v>
-      </c>
-      <c r="N84" s="6">
-        <v>2</v>
-      </c>
-      <c r="O84" s="6">
-        <v>3</v>
-      </c>
-      <c r="P84" s="6">
-        <v>2</v>
-      </c>
-      <c r="U84" s="6">
+      <c r="F86" s="56">
+        <v>2</v>
+      </c>
+      <c r="G86" s="56">
+        <v>2</v>
+      </c>
+      <c r="H86" s="56">
+        <v>1</v>
+      </c>
+      <c r="I86" s="56">
+        <v>5</v>
+      </c>
+      <c r="J86" s="56">
+        <v>2</v>
+      </c>
+      <c r="K86" s="56">
+        <v>2</v>
+      </c>
+      <c r="L86" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="58"/>
+      <c r="N86" s="56">
+        <v>1</v>
+      </c>
+      <c r="O86" s="56">
+        <v>2</v>
+      </c>
+      <c r="P86" s="56">
+        <v>2</v>
+      </c>
+      <c r="S86" s="56">
+        <v>6</v>
+      </c>
+      <c r="T86" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="U86" s="56">
         <v>56</v>
       </c>
-      <c r="V84" s="6">
-        <v>1</v>
-      </c>
-      <c r="W84" s="6">
+      <c r="V86" s="56">
+        <v>1</v>
+      </c>
+      <c r="W86" s="56">
         <v>6</v>
       </c>
-      <c r="X84" s="6">
+      <c r="X86" s="56">
         <v>6</v>
       </c>
-      <c r="Y84" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="20">
-        <v>20.85</v>
-      </c>
-      <c r="AA84" s="20">
-        <v>135</v>
-      </c>
-      <c r="AB84" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC84" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE84" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>41906.84778935185</v>
-      </c>
-      <c r="B85" s="46">
-        <v>3</v>
-      </c>
-      <c r="C85" s="28">
-        <v>1</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="6">
-        <v>1</v>
-      </c>
-      <c r="G85" s="6">
-        <v>2</v>
-      </c>
-      <c r="H85" s="6">
-        <v>2</v>
-      </c>
-      <c r="I85" s="6">
-        <v>5</v>
-      </c>
-      <c r="J85" s="6">
-        <v>2</v>
-      </c>
-      <c r="K85" s="6">
-        <v>1</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M85" s="6">
-        <v>1</v>
-      </c>
-      <c r="N85" s="6">
-        <v>2</v>
-      </c>
-      <c r="O85" s="6">
-        <v>3</v>
-      </c>
-      <c r="P85" s="6">
-        <v>2</v>
-      </c>
-      <c r="U85" s="6">
-        <v>56</v>
-      </c>
-      <c r="V85" s="6">
-        <v>1</v>
-      </c>
-      <c r="W85" s="6">
-        <v>6</v>
-      </c>
-      <c r="X85" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y85" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="20">
-        <v>21.56</v>
-      </c>
-      <c r="AA85" s="20">
-        <v>93</v>
-      </c>
-      <c r="AB85" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC85" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:51" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>41906.84778935185</v>
-      </c>
-      <c r="B86" s="46">
-        <v>1</v>
-      </c>
-      <c r="C86" s="28">
-        <v>1</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="6">
-        <v>2</v>
-      </c>
-      <c r="G86" s="6">
-        <v>2</v>
-      </c>
-      <c r="H86" s="6">
-        <v>1</v>
-      </c>
-      <c r="I86" s="6">
-        <v>5</v>
-      </c>
-      <c r="J86" s="6">
-        <v>2</v>
-      </c>
-      <c r="K86" s="6">
-        <v>2</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="6">
-        <v>1</v>
-      </c>
-      <c r="O86" s="6">
-        <v>2</v>
-      </c>
-      <c r="P86" s="6">
-        <v>2</v>
-      </c>
-      <c r="S86" s="6">
-        <v>6</v>
-      </c>
-      <c r="T86" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="U86" s="6">
-        <v>56</v>
-      </c>
-      <c r="V86" s="6">
-        <v>1</v>
-      </c>
-      <c r="W86" s="6">
-        <v>6</v>
-      </c>
-      <c r="X86" s="6">
-        <v>6</v>
-      </c>
-      <c r="Y86" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="20">
+      <c r="Y86" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="55">
         <v>14.86</v>
       </c>
-      <c r="AH86" s="32">
+      <c r="AH86" s="55">
         <v>2.99</v>
       </c>
     </row>
@@ -8858,7 +8896,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>76</v>
@@ -8897,7 +8935,7 @@
         <v>2</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U88" s="6">
         <v>51</v>
@@ -8938,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>76</v>
@@ -8977,7 +9015,7 @@
         <v>2</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U89" s="6">
         <v>51</v>
@@ -9001,7 +9039,7 @@
         <v>133</v>
       </c>
       <c r="AC89" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF89" s="20" t="s">
         <v>125</v>
@@ -9018,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>76</v>
@@ -9042,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M90" s="6">
         <v>2</v>
@@ -9087,22 +9125,22 @@
         <v>41906.869016203702</v>
       </c>
       <c r="B91" s="46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -9111,10 +9149,10 @@
         <v>5</v>
       </c>
       <c r="J91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" s="18" t="s">
         <v>20</v>
@@ -9124,22 +9162,19 @@
         <v>1</v>
       </c>
       <c r="O91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" s="6">
         <v>2</v>
       </c>
-      <c r="R91" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="S91" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T91" s="18" t="s">
         <v>19</v>
       </c>
       <c r="U91" s="6">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V91" s="6">
         <v>1</v>
@@ -9148,23 +9183,15 @@
         <v>6</v>
       </c>
       <c r="X91" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y91" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z91" s="20">
-        <v>14.25</v>
-      </c>
-      <c r="AC91" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF91" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH91" s="20" t="s">
-        <v>151</v>
-      </c>
+        <v>14.86</v>
+      </c>
+      <c r="AH91" s="32"/>
     </row>
     <row r="92" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
@@ -9320,7 +9347,7 @@
         <v>5</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R93" s="18"/>
       <c r="S93" s="18"/>
@@ -9348,7 +9375,7 @@
       </c>
       <c r="AB93" s="18"/>
       <c r="AC93" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD93" s="18"/>
       <c r="AE93" s="49"/>
@@ -9357,7 +9384,7 @@
       </c>
       <c r="AG93" s="18"/>
       <c r="AH93" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AI93" s="18"/>
       <c r="AJ93" s="18"/>
@@ -9427,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="Q94" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
@@ -9455,7 +9482,7 @@
       </c>
       <c r="AB94" s="19"/>
       <c r="AC94" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AD94" s="19"/>
       <c r="AE94" s="2"/>
@@ -9530,13 +9557,13 @@
         <v>3</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R95" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S95" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T95" s="19"/>
       <c r="U95" s="6">
@@ -9555,14 +9582,14 @@
         <v>5</v>
       </c>
       <c r="Z95" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AA95" s="2">
         <v>57.6</v>
       </c>
       <c r="AB95" s="19"/>
       <c r="AC95" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AD95" s="19"/>
       <c r="AE95" s="2">
@@ -9665,7 +9692,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="19"/>
       <c r="AC96" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AD96" s="19"/>
       <c r="AE96" s="2"/>
@@ -9866,11 +9893,11 @@
         <v>25.31</v>
       </c>
       <c r="AA98" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AB98" s="19"/>
       <c r="AC98" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AD98" s="19"/>
       <c r="AE98" s="2"/>
@@ -9971,7 +9998,7 @@
       </c>
       <c r="AB99" s="19"/>
       <c r="AC99" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AD99" s="19"/>
       <c r="AE99" s="2" t="s">
@@ -10070,11 +10097,11 @@
         <v>26.11</v>
       </c>
       <c r="AA100" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AB100" s="19"/>
       <c r="AC100" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AD100" s="19"/>
       <c r="AE100" s="2"/>
@@ -10177,7 +10204,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="19"/>
       <c r="AC101" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AD101" s="19"/>
       <c r="AE101" s="2"/>
@@ -10358,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="Q103" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R103" s="18"/>
       <c r="S103" s="18"/>
@@ -10386,7 +10413,7 @@
       </c>
       <c r="AB103" s="19"/>
       <c r="AC103" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AD103" s="19"/>
       <c r="AE103" s="2" t="s">
@@ -10463,7 +10490,7 @@
         <v>5</v>
       </c>
       <c r="Q104" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
@@ -10491,12 +10518,12 @@
       </c>
       <c r="AB104" s="19"/>
       <c r="AC104" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AD104" s="19"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG104" s="19"/>
       <c r="AH104" s="19"/>
@@ -10568,7 +10595,7 @@
         <v>4</v>
       </c>
       <c r="Q105" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R105" s="19"/>
       <c r="S105" s="19"/>
@@ -10596,7 +10623,7 @@
       </c>
       <c r="AB105" s="19"/>
       <c r="AC105" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AD105" s="19"/>
       <c r="AE105" s="2"/>
@@ -10669,7 +10696,7 @@
         <v>4</v>
       </c>
       <c r="Q106" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R106" s="19"/>
       <c r="S106" s="19">
@@ -10878,11 +10905,11 @@
         <v>4</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="R108" s="18"/>
       <c r="S108" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T108" s="18"/>
       <c r="U108" s="6">
@@ -10908,12 +10935,12 @@
       </c>
       <c r="AB108" s="19"/>
       <c r="AC108" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AD108" s="19"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG108" s="19"/>
       <c r="AH108" s="19"/>
@@ -10986,7 +11013,7 @@
       </c>
       <c r="Q109" s="19"/>
       <c r="R109" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S109" s="18"/>
       <c r="T109" s="19"/>
@@ -11013,7 +11040,7 @@
       </c>
       <c r="AB109" s="19"/>
       <c r="AC109" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AD109" s="19"/>
       <c r="AE109" s="2"/>
@@ -11088,7 +11115,7 @@
         <v>4</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
@@ -11116,7 +11143,7 @@
       </c>
       <c r="AB110" s="19"/>
       <c r="AC110" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AD110" s="19"/>
       <c r="AE110" s="2"/>
@@ -11189,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="Q111" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="19">
@@ -11422,11 +11449,11 @@
         <v>27.4</v>
       </c>
       <c r="AA113" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AB113" s="19"/>
       <c r="AC113" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD113" s="19"/>
       <c r="AE113" s="2"/>
@@ -11527,7 +11554,7 @@
       </c>
       <c r="AB114" s="19"/>
       <c r="AC114" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AD114" s="19"/>
       <c r="AE114" s="2">
@@ -11630,7 +11657,7 @@
       </c>
       <c r="AB115" s="19"/>
       <c r="AC115" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AD115" s="19"/>
       <c r="AE115" s="2"/>
@@ -11733,7 +11760,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="19"/>
       <c r="AC116" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AD116" s="19"/>
       <c r="AE116" s="2">
@@ -11941,7 +11968,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AC118" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AE118" s="20">
         <v>0.5</v>
@@ -12022,7 +12049,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AC119" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12100,7 +12127,7 @@
         <v>1.02</v>
       </c>
       <c r="AC120" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12177,10 +12204,10 @@
         <v>30.8</v>
       </c>
       <c r="AC121" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AH121" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12359,7 +12386,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AC123" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF123" s="20" t="s">
         <v>125</v>
@@ -12437,7 +12464,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="AC124" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:51" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12512,7 +12539,7 @@
         <v>1.07</v>
       </c>
       <c r="AC125" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AE125" s="20">
         <v>0.5</v>
@@ -12589,7 +12616,7 @@
         <v>34.26</v>
       </c>
       <c r="AC126" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AE126" s="20">
         <v>0.5</v>
@@ -12749,10 +12776,10 @@
         <v>3</v>
       </c>
       <c r="Q128" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R128" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
@@ -12778,7 +12805,7 @@
         <v>1.05</v>
       </c>
       <c r="AC128" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12828,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="Q129" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R129" s="19"/>
       <c r="S129" s="19"/>
@@ -12855,10 +12882,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AC129" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AF129" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12908,7 +12935,7 @@
         <v>3</v>
       </c>
       <c r="Q130" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R130" s="19"/>
       <c r="S130" s="19"/>
@@ -12935,7 +12962,7 @@
         <v>57.57</v>
       </c>
       <c r="AC130" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13009,7 +13036,7 @@
         <v>32.880000000000003</v>
       </c>
       <c r="AC131" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AE131" s="20">
         <v>1</v>
@@ -13194,7 +13221,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AC133" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13269,7 +13296,7 @@
         <v>1.08</v>
       </c>
       <c r="AC134" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE134" s="20">
         <v>0</v>
@@ -13347,7 +13374,7 @@
         <v>59</v>
       </c>
       <c r="AC135" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13421,7 +13448,7 @@
         <v>22.61</v>
       </c>
       <c r="AC136" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AH136" s="20">
         <v>2.4900000000000002</v>
@@ -13542,7 +13569,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F138" s="6">
         <v>2</v>
@@ -13581,7 +13608,7 @@
         <v>25</v>
       </c>
       <c r="R138" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
@@ -13607,7 +13634,7 @@
         <v>1.32</v>
       </c>
       <c r="AC138" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13621,7 +13648,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F139" s="6">
         <v>3</v>
@@ -13657,10 +13684,10 @@
         <v>4</v>
       </c>
       <c r="Q139" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R139" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S139" s="19"/>
       <c r="T139" s="19"/>
@@ -13686,7 +13713,7 @@
         <v>1.31</v>
       </c>
       <c r="AC139" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AE139" s="20">
         <v>0</v>
@@ -13703,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F140" s="6">
         <v>4</v>
@@ -13739,10 +13766,10 @@
         <v>5</v>
       </c>
       <c r="Q140" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R140" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S140" s="19"/>
       <c r="T140" s="19"/>
@@ -13768,7 +13795,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AC140" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13782,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F141" s="6">
         <v>1</v>
@@ -13816,10 +13843,10 @@
         <v>4</v>
       </c>
       <c r="Q141" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R141" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S141" s="19">
         <v>5</v>
@@ -13846,7 +13873,7 @@
         <v>34.79</v>
       </c>
       <c r="AC141" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AH141" s="20">
         <v>6.84</v>
@@ -13967,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F143" s="6">
         <v>2</v>
@@ -14028,7 +14055,7 @@
         <v>1.21</v>
       </c>
       <c r="AC143" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14042,7 +14069,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F144" s="6">
         <v>3</v>
@@ -14103,7 +14130,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="AC144" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AE144" s="20">
         <v>1</v>
@@ -14120,7 +14147,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F145" s="6">
         <v>4</v>
@@ -14181,7 +14208,7 @@
         <v>1.04</v>
       </c>
       <c r="AC145" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14195,7 +14222,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F146" s="6">
         <v>2</v>
@@ -14257,7 +14284,7 @@
         <v>29.44</v>
       </c>
       <c r="AC146" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14375,7 +14402,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F148" s="6">
         <v>4</v>
@@ -14436,7 +14463,7 @@
         <v>62</v>
       </c>
       <c r="AC148" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE148" s="20">
         <v>1</v>
@@ -14453,7 +14480,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F149" s="6">
         <v>3</v>
@@ -14514,7 +14541,7 @@
         <v>63</v>
       </c>
       <c r="AC149" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14528,7 +14555,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F150" s="6">
         <v>4</v>
@@ -14589,7 +14616,7 @@
         <v>58</v>
       </c>
       <c r="AC150" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="151" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14603,7 +14630,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F151" s="6">
         <v>1</v>
@@ -14663,7 +14690,7 @@
         <v>24.82</v>
       </c>
       <c r="AC151" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AH151" s="20">
         <v>4.63</v>
